--- a/Tables/Public/CommonItem.xlsx
+++ b/Tables/Public/CommonItem.xlsx
@@ -16,10 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -32,41 +28,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试道具1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TestValue_3</t>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试道具1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestValue_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,6 +72,14 @@
   </si>
   <si>
     <t>1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestValue_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +432,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -441,62 +442,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -504,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -513,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
